--- a/biology/Médecine/Think-Pink/Think-Pink.xlsx
+++ b/biology/Médecine/Think-Pink/Think-Pink.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Think-Pink est le nom de la campagne nationale contre le cancer du sein en Belgique. Elle est créée par Heidi Vansevenant en 2007[1]. Victime d’un cancer, celle-ci décide de s’engager dans la lutte contre le cancer du sein et crée Think Pink aidé par le financement de Samsung Mobile.[réf. nécessaire] La campagne sensibilise les femmes au cancer du sein et surtout à l’importance du dépistage et de la mammographie. L'objectif de l'association est que d'ici à 2027 50 % de femmes en moins en Belgique décèdent d'un cancer du sein[2].
-Think Pink participe à des actions et organise de nombreux événements tels que des marches (Walk on the Moon[3]), marathons, joggings, ou encore des promenades à vélo afin de récolter des fonds, ainsi qu'une opération autour de la récolte de cheveux, « Coupe d'éclat »[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Think-Pink est le nom de la campagne nationale contre le cancer du sein en Belgique. Elle est créée par Heidi Vansevenant en 2007. Victime d’un cancer, celle-ci décide de s’engager dans la lutte contre le cancer du sein et crée Think Pink aidé par le financement de Samsung Mobile.[réf. nécessaire] La campagne sensibilise les femmes au cancer du sein et surtout à l’importance du dépistage et de la mammographie. L'objectif de l'association est que d'ici à 2027 50 % de femmes en moins en Belgique décèdent d'un cancer du sein.
+Think Pink participe à des actions et organise de nombreux événements tels que des marches (Walk on the Moon), marathons, joggings, ou encore des promenades à vélo afin de récolter des fonds, ainsi qu'une opération autour de la récolte de cheveux, « Coupe d'éclat ».
 </t>
         </is>
       </c>
